--- a/Assets/06.Table/DimensionEquip.xlsx
+++ b/Assets/06.Table/DimensionEquip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8562E9-DA98-4085-82EA-E071C97CF330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290AA50C-CF19-4E3D-AEC1-202B11BDD5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionEquip" sheetId="1" r:id="rId1"/>
@@ -33,20 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,78 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon0</t>
-  </si>
-  <si>
-    <t>Weapon1</t>
-  </si>
-  <si>
-    <t>Weapon2</t>
-  </si>
-  <si>
-    <t>Weapon3</t>
-  </si>
-  <si>
-    <t>Weapon4</t>
-  </si>
-  <si>
-    <t>Weapon5</t>
-  </si>
-  <si>
-    <t>Weapon6</t>
-  </si>
-  <si>
-    <t>Weapon7</t>
-  </si>
-  <si>
-    <t>Weapon8</t>
-  </si>
-  <si>
-    <t>Weapon9</t>
-  </si>
-  <si>
-    <t>Weapon10</t>
-  </si>
-  <si>
-    <t>Weapon11</t>
-  </si>
-  <si>
-    <t>Weapon12</t>
-  </si>
-  <si>
-    <t>Weapon13</t>
-  </si>
-  <si>
-    <t>Weapon14</t>
-  </si>
-  <si>
-    <t>Weapon15</t>
-  </si>
-  <si>
-    <t>Weapon16</t>
-  </si>
-  <si>
-    <t>Weapon17</t>
-  </si>
-  <si>
-    <t>Weapon18</t>
-  </si>
-  <si>
-    <t>Weapon19</t>
-  </si>
-  <si>
-    <t>Weapon20</t>
-  </si>
-  <si>
-    <t>Weapon21</t>
-  </si>
-  <si>
-    <t>Weapon22</t>
-  </si>
-  <si>
-    <t>Weapon23</t>
-  </si>
-  <si>
     <t>equipEffectType1</t>
   </si>
   <si>
@@ -145,178 +65,46 @@
     <t>equipEffectValue2</t>
   </si>
   <si>
-    <t>Weapon24</t>
-  </si>
-  <si>
-    <t>Weapon25</t>
-  </si>
-  <si>
-    <t>Weapon26</t>
-  </si>
-  <si>
-    <t>Weapon27</t>
-  </si>
-  <si>
-    <t>Weapon28</t>
-  </si>
-  <si>
-    <t>Weapon29</t>
-  </si>
-  <si>
-    <t>Weapon30</t>
-  </si>
-  <si>
-    <t>Weapon31</t>
-  </si>
-  <si>
-    <t>Weapon32</t>
-  </si>
-  <si>
-    <t>Weapon33</t>
-  </si>
-  <si>
-    <t>Weapon34</t>
-  </si>
-  <si>
-    <t>Weapon35</t>
-  </si>
-  <si>
-    <t>Weapon36</t>
-  </si>
-  <si>
-    <t>Weapon37</t>
-  </si>
-  <si>
-    <t>Weapon38</t>
-  </si>
-  <si>
-    <t>Weapon39</t>
-  </si>
-  <si>
     <t>equipEffectType3</t>
   </si>
   <si>
     <t>equipEffectValue3</t>
   </si>
   <si>
-    <t>하급 장비 5</t>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 장비 4</t>
+    <t>하급 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 장비 3</t>
+    <t>중급 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 장비 2</t>
+    <t>상급 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 장비 1</t>
+    <t>특급 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중급 장비 5</t>
+    <t>전설 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중급 장비 4</t>
+    <t>요물 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중급 장비 3</t>
+    <t>신물 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중급 장비 2</t>
-  </si>
-  <si>
-    <t>중급 장비 1</t>
-  </si>
-  <si>
-    <t>상급 장비 5</t>
-  </si>
-  <si>
-    <t>상급 장비 4</t>
-  </si>
-  <si>
-    <t>상급 장비 3</t>
-  </si>
-  <si>
-    <t>상급 장비 2</t>
-  </si>
-  <si>
-    <t>상급 장비 1</t>
-  </si>
-  <si>
-    <t>특급 장비 5</t>
-  </si>
-  <si>
-    <t>특급 장비 4</t>
-  </si>
-  <si>
-    <t>특급 장비 3</t>
-  </si>
-  <si>
-    <t>특급 장비 2</t>
-  </si>
-  <si>
-    <t>특급 장비 1</t>
-  </si>
-  <si>
-    <t>전설 장비 5</t>
-  </si>
-  <si>
-    <t>전설 장비 4</t>
-  </si>
-  <si>
-    <t>전설 장비 3</t>
-  </si>
-  <si>
-    <t>전설 장비 2</t>
-  </si>
-  <si>
-    <t>전설 장비 1</t>
-  </si>
-  <si>
-    <t>요물 장비 5</t>
-  </si>
-  <si>
-    <t>요물 장비 4</t>
-  </si>
-  <si>
-    <t>요물 장비 3</t>
-  </si>
-  <si>
-    <t>요물 장비 2</t>
-  </si>
-  <si>
-    <t>요물 장비 1</t>
-  </si>
-  <si>
-    <t>신물 장비 5</t>
-  </si>
-  <si>
-    <t>신물 장비 4</t>
-  </si>
-  <si>
-    <t>신물 장비 3</t>
-  </si>
-  <si>
-    <t>신물 장비 2</t>
-  </si>
-  <si>
-    <t>신물 장비 1</t>
-  </si>
-  <si>
-    <t>영물 장비 5</t>
-  </si>
-  <si>
-    <t>영물 장비 4</t>
-  </si>
-  <si>
-    <t>영물 장비 3</t>
-  </si>
-  <si>
-    <t>영물 장비 2</t>
-  </si>
-  <si>
-    <t>영물 장비 1</t>
+    <t>영물 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -779,12 +567,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,1750 +581,1626 @@
     <col min="2" max="2" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="19.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="19.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
+      <c r="B2" s="4">
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
+        <v>15001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
       </c>
       <c r="H2" s="4">
-        <v>4</v>
+        <v>0.01</v>
       </c>
       <c r="I2" s="4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="4">
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
+        <v>15001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>4</v>
+        <v>0.02</v>
       </c>
       <c r="I3" s="4">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+      <c r="B4" s="4">
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
+        <v>15001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>4</v>
+        <v>0.03</v>
       </c>
       <c r="I4" s="4">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="4">
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G5" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="I5" s="4">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
+      <c r="B6" s="4">
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
+        <v>15001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="I6" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="4">
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <f>C2+1</f>
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G7" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F7" s="5">
         <v>6</v>
       </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
       <c r="H7" s="4">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="I7" s="4">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K7" s="4">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
+      <c r="B8" s="4">
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C41" si="0">C3+1</f>
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G8" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F8" s="5">
         <v>7</v>
       </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
       <c r="H8" s="4">
-        <v>4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K8" s="4">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="4">
+        <v>3</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G9" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F9" s="5">
         <v>8</v>
       </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
       <c r="H9" s="4">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="I9" s="4">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="K9" s="4">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
+      <c r="B10" s="4">
+        <v>2</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G10" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F10" s="5">
         <v>9</v>
       </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
       <c r="H10" s="4">
-        <v>4</v>
+        <v>0.09</v>
       </c>
       <c r="I10" s="4">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="K10" s="4">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
+      <c r="B11" s="4">
+        <v>1</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G11" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F11" s="5">
         <v>10</v>
       </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
       <c r="H11" s="4">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K11" s="4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+      <c r="B12" s="4">
+        <v>5</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G12" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F12" s="5">
         <v>11</v>
       </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
       <c r="H12" s="4">
-        <v>4</v>
+        <v>0.11</v>
       </c>
       <c r="I12" s="4">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="K12" s="4">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
+      <c r="B13" s="4">
+        <v>4</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G13" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F13" s="5">
         <v>12</v>
       </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
       <c r="H13" s="4">
-        <v>4</v>
+        <v>0.12</v>
       </c>
       <c r="I13" s="4">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="K13" s="4">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="L13" s="4">
-        <v>5</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
+      <c r="B14" s="4">
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G14" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F14" s="5">
         <v>13</v>
       </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
       <c r="H14" s="4">
-        <v>4</v>
+        <v>0.13</v>
       </c>
       <c r="I14" s="4">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="K14" s="4">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="L14" s="4">
-        <v>5</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
+      <c r="B15" s="4">
+        <v>2</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G15" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F15" s="5">
         <v>14</v>
       </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
       <c r="H15" s="4">
-        <v>4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I15" s="4">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="K15" s="4">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
+      <c r="B16" s="4">
+        <v>1</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G16" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F16" s="5">
         <v>15</v>
       </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
       <c r="H16" s="4">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="I16" s="4">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="K16" s="4">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="L16" s="4">
-        <v>5</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
+      <c r="B17" s="4">
+        <v>5</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G17" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F17" s="5">
         <v>16</v>
       </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
       <c r="H17" s="4">
-        <v>4</v>
+        <v>0.16</v>
       </c>
       <c r="I17" s="4">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="K17" s="4">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
+      <c r="B18" s="4">
+        <v>4</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G18" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F18" s="5">
         <v>17</v>
       </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
       <c r="H18" s="4">
-        <v>4</v>
+        <v>0.17</v>
       </c>
       <c r="I18" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="K18" s="4">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="L18" s="4">
-        <v>5</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
+      <c r="B19" s="4">
+        <v>3</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G19" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F19" s="5">
         <v>18</v>
       </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
       <c r="H19" s="4">
-        <v>4</v>
+        <v>0.18</v>
       </c>
       <c r="I19" s="4">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="K19" s="4">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="L19" s="4">
-        <v>5</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
+      <c r="B20" s="4">
+        <v>2</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G20" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F20" s="5">
         <v>19</v>
       </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
       <c r="H20" s="4">
-        <v>4</v>
+        <v>0.19</v>
       </c>
       <c r="I20" s="4">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="K20" s="4">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4">
-        <v>5</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
+      <c r="B21" s="4">
+        <v>1</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G21" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F21" s="5">
         <v>20</v>
       </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
       <c r="H21" s="4">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K21" s="4">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="L21" s="4">
-        <v>5</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
+      <c r="B22" s="4">
+        <v>5</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G22" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F22" s="5">
         <v>21</v>
       </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
       <c r="H22" s="4">
-        <v>4</v>
+        <v>0.21</v>
       </c>
       <c r="I22" s="4">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="K22" s="4">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="L22" s="4">
-        <v>5</v>
-      </c>
-      <c r="M22" s="4">
-        <f>M12+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <f>L12+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
+      <c r="B23" s="4">
+        <v>4</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G23" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F23" s="5">
         <v>22</v>
       </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
       <c r="H23" s="4">
-        <v>4</v>
+        <v>0.22</v>
       </c>
       <c r="I23" s="4">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="K23" s="4">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="L23" s="4">
-        <v>5</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" ref="M23:M41" si="1">M13+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L23:L41" si="1">L13+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
+      <c r="B24" s="4">
+        <v>3</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G24" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F24" s="5">
         <v>23</v>
       </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
       <c r="H24" s="4">
-        <v>4</v>
+        <v>0.23</v>
       </c>
       <c r="I24" s="4">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="K24" s="4">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="L24" s="4">
-        <v>5</v>
-      </c>
-      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
+      <c r="B25" s="4">
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G25" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F25" s="5">
         <v>24</v>
       </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
       <c r="H25" s="4">
-        <v>4</v>
+        <v>0.24</v>
       </c>
       <c r="I25" s="4">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="K25" s="4">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <v>5</v>
-      </c>
-      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G26" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F26" s="5">
         <v>25</v>
       </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
       <c r="H26" s="4">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="I26" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="K26" s="4">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="L26" s="4">
-        <v>5</v>
-      </c>
-      <c r="M26" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
+      <c r="B27" s="4">
+        <v>5</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G27" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F27" s="5">
         <v>26</v>
       </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
       <c r="H27" s="4">
-        <v>4</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="4">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="K27" s="4">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="L27" s="4">
-        <v>5</v>
-      </c>
-      <c r="M27" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
+      <c r="B28" s="4">
+        <v>4</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G28" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F28" s="5">
         <v>27</v>
       </c>
+      <c r="G28" s="4">
+        <v>4</v>
+      </c>
       <c r="H28" s="4">
-        <v>4</v>
+        <v>0.27</v>
       </c>
       <c r="I28" s="4">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="K28" s="4">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="L28" s="4">
-        <v>5</v>
-      </c>
-      <c r="M28" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
+      <c r="B29" s="4">
+        <v>3</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G29" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F29" s="5">
         <v>28</v>
       </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
       <c r="H29" s="4">
-        <v>4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I29" s="4">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="K29" s="4">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="L29" s="4">
-        <v>5</v>
-      </c>
-      <c r="M29" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>39</v>
+      <c r="B30" s="4">
+        <v>2</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G30" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F30" s="5">
         <v>29</v>
       </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
       <c r="H30" s="4">
-        <v>4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I30" s="4">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J30" s="4">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="K30" s="4">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="L30" s="4">
-        <v>5</v>
-      </c>
-      <c r="M30" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
+      <c r="B31" s="4">
+        <v>1</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G31" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F31" s="5">
         <v>30</v>
       </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
       <c r="H31" s="4">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="I31" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J31" s="4">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="K31" s="4">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="L31" s="4">
-        <v>5</v>
-      </c>
-      <c r="M31" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>41</v>
+      <c r="B32" s="4">
+        <v>5</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G32" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F32" s="5">
         <v>31</v>
       </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
       <c r="H32" s="4">
-        <v>4</v>
+        <v>0.31</v>
       </c>
       <c r="I32" s="4">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="K32" s="4">
-        <v>310</v>
+        <v>5</v>
       </c>
       <c r="L32" s="4">
-        <v>5</v>
-      </c>
-      <c r="M32" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
+      <c r="B33" s="4">
+        <v>4</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G33" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F33" s="5">
         <v>32</v>
       </c>
+      <c r="G33" s="4">
+        <v>4</v>
+      </c>
       <c r="H33" s="4">
-        <v>4</v>
+        <v>0.32</v>
       </c>
       <c r="I33" s="4">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="J33" s="4">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="K33" s="4">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="L33" s="4">
-        <v>5</v>
-      </c>
-      <c r="M33" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>43</v>
+      <c r="B34" s="4">
+        <v>3</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G34" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F34" s="5">
         <v>33</v>
       </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
       <c r="H34" s="4">
-        <v>4</v>
+        <v>0.33</v>
       </c>
       <c r="I34" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="K34" s="4">
-        <v>330</v>
+        <v>5</v>
       </c>
       <c r="L34" s="4">
-        <v>5</v>
-      </c>
-      <c r="M34" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>44</v>
+      <c r="B35" s="4">
+        <v>2</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G35" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F35" s="5">
         <v>34</v>
       </c>
+      <c r="G35" s="4">
+        <v>4</v>
+      </c>
       <c r="H35" s="4">
-        <v>4</v>
+        <v>0.34</v>
       </c>
       <c r="I35" s="4">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="K35" s="4">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="L35" s="4">
-        <v>5</v>
-      </c>
-      <c r="M35" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>45</v>
+      <c r="B36" s="4">
+        <v>1</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G36" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F36" s="5">
         <v>35</v>
       </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
       <c r="H36" s="4">
-        <v>4</v>
+        <v>0.35</v>
       </c>
       <c r="I36" s="4">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="K36" s="4">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="L36" s="4">
-        <v>5</v>
-      </c>
-      <c r="M36" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>46</v>
+      <c r="B37" s="4">
+        <v>5</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G37" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F37" s="5">
         <v>36</v>
       </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
       <c r="H37" s="4">
-        <v>4</v>
+        <v>0.36</v>
       </c>
       <c r="I37" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="K37" s="4">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="L37" s="4">
-        <v>5</v>
-      </c>
-      <c r="M37" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>47</v>
+      <c r="B38" s="4">
+        <v>4</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G38" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F38" s="5">
         <v>37</v>
       </c>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
       <c r="H38" s="4">
-        <v>4</v>
+        <v>0.37</v>
       </c>
       <c r="I38" s="4">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="K38" s="4">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="L38" s="4">
-        <v>5</v>
-      </c>
-      <c r="M38" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>48</v>
+      <c r="B39" s="4">
+        <v>3</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G39" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F39" s="5">
         <v>38</v>
       </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
       <c r="H39" s="4">
-        <v>4</v>
+        <v>0.38</v>
       </c>
       <c r="I39" s="4">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="K39" s="4">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="L39" s="4">
-        <v>5</v>
-      </c>
-      <c r="M39" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>49</v>
+      <c r="B40" s="4">
+        <v>2</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G40" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F40" s="5">
         <v>39</v>
       </c>
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
       <c r="H40" s="4">
-        <v>4</v>
+        <v>0.39</v>
       </c>
       <c r="I40" s="4">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>390</v>
       </c>
       <c r="K40" s="4">
-        <v>390</v>
+        <v>5</v>
       </c>
       <c r="L40" s="4">
-        <v>5</v>
-      </c>
-      <c r="M40" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>50</v>
+      <c r="B41" s="4">
+        <v>1</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>10004</v>
-      </c>
-      <c r="G41" s="5">
+        <v>15001</v>
+      </c>
+      <c r="F41" s="5">
         <v>40</v>
       </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
       <c r="H41" s="4">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="I41" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="K41" s="4">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="L41" s="4">
-        <v>5</v>
-      </c>
-      <c r="M41" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>

--- a/Assets/06.Table/DimensionEquip.xlsx
+++ b/Assets/06.Table/DimensionEquip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290AA50C-CF19-4E3D-AEC1-202B11BDD5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD82DD7-2C54-4AD2-BE2F-83A9F82E7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionEquip" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -75,36 +75,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하급 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특급 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요물 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신물 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영물 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>하급 장비 5</t>
+  </si>
+  <si>
+    <t>하급 장비 4</t>
+  </si>
+  <si>
+    <t>하급 장비 3</t>
+  </si>
+  <si>
+    <t>하급 장비 2</t>
+  </si>
+  <si>
+    <t>하급 장비 1</t>
+  </si>
+  <si>
+    <t>중급 장비 5</t>
+  </si>
+  <si>
+    <t>중급 장비 4</t>
+  </si>
+  <si>
+    <t>중급 장비 3</t>
+  </si>
+  <si>
+    <t>중급 장비 2</t>
+  </si>
+  <si>
+    <t>중급 장비 1</t>
+  </si>
+  <si>
+    <t>상급 장비 5</t>
+  </si>
+  <si>
+    <t>상급 장비 4</t>
+  </si>
+  <si>
+    <t>상급 장비 3</t>
+  </si>
+  <si>
+    <t>상급 장비 2</t>
+  </si>
+  <si>
+    <t>상급 장비 1</t>
+  </si>
+  <si>
+    <t>특급 장비 5</t>
+  </si>
+  <si>
+    <t>특급 장비 4</t>
+  </si>
+  <si>
+    <t>특급 장비 3</t>
+  </si>
+  <si>
+    <t>특급 장비 2</t>
+  </si>
+  <si>
+    <t>특급 장비 1</t>
+  </si>
+  <si>
+    <t>전설 장비 5</t>
+  </si>
+  <si>
+    <t>전설 장비 4</t>
+  </si>
+  <si>
+    <t>전설 장비 3</t>
+  </si>
+  <si>
+    <t>전설 장비 2</t>
+  </si>
+  <si>
+    <t>전설 장비 1</t>
+  </si>
+  <si>
+    <t>요물 장비 5</t>
+  </si>
+  <si>
+    <t>요물 장비 4</t>
+  </si>
+  <si>
+    <t>요물 장비 3</t>
+  </si>
+  <si>
+    <t>요물 장비 2</t>
+  </si>
+  <si>
+    <t>요물 장비 1</t>
+  </si>
+  <si>
+    <t>신물 장비 5</t>
+  </si>
+  <si>
+    <t>신물 장비 4</t>
+  </si>
+  <si>
+    <t>신물 장비 3</t>
+  </si>
+  <si>
+    <t>신물 장비 2</t>
+  </si>
+  <si>
+    <t>신물 장비 1</t>
+  </si>
+  <si>
+    <t>영물 장비 5</t>
+  </si>
+  <si>
+    <t>영물 장비 4</t>
+  </si>
+  <si>
+    <t>영물 장비 3</t>
+  </si>
+  <si>
+    <t>영물 장비 2</t>
+  </si>
+  <si>
+    <t>영물 장비 1</t>
   </si>
 </sst>
 </file>
@@ -570,9 +658,9 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -647,7 +735,7 @@
         <v>15001</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
         <v>4</v>
@@ -656,10 +744,10 @@
         <v>0.01</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K2" s="4">
         <v>-1</v>
@@ -673,19 +761,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>15001</v>
       </c>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G3" s="4">
         <v>4</v>
@@ -694,10 +782,10 @@
         <v>0.02</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K3" s="4">
         <v>-1</v>
@@ -711,19 +799,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4">
         <v>15001</v>
       </c>
       <c r="F4" s="5">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
@@ -732,10 +820,10 @@
         <v>0.03</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="K4" s="4">
         <v>-1</v>
@@ -749,19 +837,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>15001</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
@@ -770,10 +858,10 @@
         <v>0.04</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="K5" s="4">
         <v>-1</v>
@@ -787,19 +875,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>15001</v>
       </c>
       <c r="F6" s="5">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -808,10 +896,10 @@
         <v>0.05</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="K6" s="4">
         <v>-1</v>
@@ -825,38 +913,38 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <f>C2+1</f>
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
         <v>15001</v>
       </c>
       <c r="F7" s="5">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7" s="4">
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="K7" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -864,20 +952,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C41" si="0">C3+1</f>
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>15001</v>
       </c>
       <c r="F8" s="5">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4">
         <v>4</v>
@@ -886,16 +974,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="K8" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -903,20 +991,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4">
         <v>15001</v>
       </c>
       <c r="F9" s="5">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -925,16 +1013,16 @@
         <v>0.08</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="K9" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,20 +1030,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4">
         <v>15001</v>
       </c>
       <c r="F10" s="5">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G10" s="4">
         <v>4</v>
@@ -964,16 +1052,16 @@
         <v>0.09</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="K10" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -981,38 +1069,38 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4">
         <v>15001</v>
       </c>
       <c r="F11" s="5">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="G11" s="4">
         <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="K11" s="4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1020,32 +1108,32 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4">
         <v>15001</v>
       </c>
       <c r="F12" s="5">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="K12" s="4">
         <v>5</v>
@@ -1059,32 +1147,32 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4">
         <v>15001</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="G13" s="4">
         <v>4</v>
       </c>
       <c r="H13" s="4">
-        <v>0.12</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="K13" s="4">
         <v>5</v>
@@ -1098,32 +1186,32 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4">
         <v>15001</v>
       </c>
       <c r="F14" s="5">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="G14" s="4">
         <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>0.13</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>130</v>
+        <v>543</v>
       </c>
       <c r="K14" s="4">
         <v>5</v>
@@ -1137,32 +1225,32 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4">
         <v>15001</v>
       </c>
       <c r="F15" s="5">
-        <v>14</v>
+        <v>520</v>
       </c>
       <c r="G15" s="4">
         <v>4</v>
       </c>
       <c r="H15" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.17999999999999997</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>140</v>
+        <v>598</v>
       </c>
       <c r="K15" s="4">
         <v>5</v>
@@ -1176,32 +1264,32 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4">
         <v>15001</v>
       </c>
       <c r="F16" s="5">
-        <v>15</v>
+        <v>570</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
       <c r="H16" s="4">
-        <v>0.15</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>150</v>
+        <v>658</v>
       </c>
       <c r="K16" s="4">
         <v>5</v>
@@ -1215,38 +1303,38 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4">
         <v>15001</v>
       </c>
       <c r="F17" s="5">
-        <v>16</v>
+        <v>810</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>0.16</v>
+        <v>0.21999999999999995</v>
       </c>
       <c r="I17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>160</v>
+        <v>941</v>
       </c>
       <c r="K17" s="4">
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1254,38 +1342,38 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4">
         <v>15001</v>
       </c>
       <c r="F18" s="5">
-        <v>17</v>
+        <v>890</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>0.17</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>170</v>
+        <v>1036</v>
       </c>
       <c r="K18" s="4">
         <v>5</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1293,38 +1381,38 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4">
         <v>15001</v>
       </c>
       <c r="F19" s="5">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="G19" s="4">
         <v>4</v>
       </c>
       <c r="H19" s="4">
-        <v>0.18</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>180</v>
+        <v>1140</v>
       </c>
       <c r="K19" s="4">
         <v>5</v>
       </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1332,38 +1420,38 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4">
         <v>15001</v>
       </c>
       <c r="F20" s="5">
-        <v>19</v>
+        <v>1060</v>
       </c>
       <c r="G20" s="4">
         <v>4</v>
       </c>
       <c r="H20" s="4">
-        <v>0.19</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>190</v>
+        <v>1254</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1371,38 +1459,38 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4">
         <v>15001</v>
       </c>
       <c r="F21" s="5">
-        <v>20</v>
+        <v>1160</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>200</v>
+        <v>1380</v>
       </c>
       <c r="K21" s="4">
         <v>5</v>
       </c>
       <c r="L21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1410,38 +1498,37 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4">
         <v>15001</v>
       </c>
       <c r="F22" s="5">
-        <v>21</v>
+        <v>1530</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" s="4">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>210</v>
+        <v>1822</v>
       </c>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="4">
-        <f>L12+1</f>
         <v>2</v>
       </c>
     </row>
@@ -1450,38 +1537,37 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4">
         <v>15001</v>
       </c>
       <c r="F23" s="5">
-        <v>22</v>
+        <v>1680</v>
       </c>
       <c r="G23" s="4">
         <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>220</v>
+        <v>2005</v>
       </c>
       <c r="K23" s="4">
         <v>5</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:L41" si="1">L13+1</f>
         <v>2</v>
       </c>
     </row>
@@ -1490,38 +1576,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4">
         <v>15001</v>
       </c>
       <c r="F24" s="5">
-        <v>23</v>
+        <v>1840</v>
       </c>
       <c r="G24" s="4">
         <v>4</v>
       </c>
       <c r="H24" s="4">
-        <v>0.23</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>230</v>
+        <v>2206</v>
       </c>
       <c r="K24" s="4">
         <v>5</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1530,38 +1615,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4">
         <v>15001</v>
       </c>
       <c r="F25" s="5">
-        <v>24</v>
+        <v>2020</v>
       </c>
       <c r="G25" s="4">
         <v>4</v>
       </c>
       <c r="H25" s="4">
-        <v>0.24</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>240</v>
+        <v>2427</v>
       </c>
       <c r="K25" s="4">
         <v>5</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1570,38 +1654,37 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4">
         <v>15001</v>
       </c>
       <c r="F26" s="5">
-        <v>25</v>
+        <v>2220</v>
       </c>
       <c r="G26" s="4">
         <v>4</v>
       </c>
       <c r="H26" s="4">
-        <v>0.25</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>250</v>
+        <v>2670</v>
       </c>
       <c r="K26" s="4">
         <v>5</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1610,39 +1693,38 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4">
         <v>15001</v>
       </c>
       <c r="F27" s="5">
-        <v>26</v>
+        <v>2930</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
       </c>
       <c r="H27" s="4">
-        <v>0.26</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>260</v>
+        <v>3525</v>
       </c>
       <c r="K27" s="4">
         <v>5</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1650,39 +1732,38 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E28" s="4">
         <v>15001</v>
       </c>
       <c r="F28" s="5">
-        <v>27</v>
+        <v>3220</v>
       </c>
       <c r="G28" s="4">
         <v>4</v>
       </c>
       <c r="H28" s="4">
-        <v>0.27</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>270</v>
+        <v>3878</v>
       </c>
       <c r="K28" s="4">
         <v>5</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1690,39 +1771,38 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4">
+        <v>15001</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3540</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.4900000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4266</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>3</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="4">
-        <v>15001</v>
-      </c>
-      <c r="F29" s="5">
-        <v>28</v>
-      </c>
-      <c r="G29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>280</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1730,39 +1810,38 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4">
         <v>15001</v>
       </c>
       <c r="F30" s="5">
-        <v>29</v>
+        <v>3890</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
       </c>
       <c r="H30" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.52000000000000013</v>
       </c>
       <c r="I30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>290</v>
+        <v>4693</v>
       </c>
       <c r="K30" s="4">
         <v>5</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1770,39 +1849,38 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E31" s="4">
         <v>15001</v>
       </c>
       <c r="F31" s="5">
-        <v>30</v>
+        <v>4270</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
       </c>
       <c r="H31" s="4">
-        <v>0.3</v>
+        <v>0.55000000000000016</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>300</v>
+        <v>5163</v>
       </c>
       <c r="K31" s="4">
         <v>5</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1810,39 +1888,38 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4">
         <v>15001</v>
       </c>
       <c r="F32" s="5">
-        <v>31</v>
+        <v>5630</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" s="4">
-        <v>0.31</v>
+        <v>0.58000000000000018</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4">
-        <v>310</v>
+        <v>6816</v>
       </c>
       <c r="K32" s="4">
         <v>5</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1850,39 +1927,38 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E33" s="4">
         <v>15001</v>
       </c>
       <c r="F33" s="5">
-        <v>32</v>
+        <v>6190</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
       </c>
       <c r="H33" s="4">
-        <v>0.32</v>
+        <v>0.61000000000000021</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>320</v>
+        <v>7498</v>
       </c>
       <c r="K33" s="4">
         <v>5</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1890,39 +1966,38 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E34" s="4">
         <v>15001</v>
       </c>
       <c r="F34" s="5">
-        <v>33</v>
+        <v>6800</v>
       </c>
       <c r="G34" s="4">
         <v>4</v>
       </c>
       <c r="H34" s="4">
-        <v>0.33</v>
+        <v>0.64000000000000024</v>
       </c>
       <c r="I34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>330</v>
+        <v>8248</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1930,39 +2005,38 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E35" s="4">
         <v>15001</v>
       </c>
       <c r="F35" s="5">
-        <v>34</v>
+        <v>7480</v>
       </c>
       <c r="G35" s="4">
         <v>4</v>
       </c>
       <c r="H35" s="4">
-        <v>0.34</v>
+        <v>0.67000000000000026</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>340</v>
+        <v>9073</v>
       </c>
       <c r="K35" s="4">
         <v>5</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1970,39 +2044,38 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E36" s="4">
         <v>15001</v>
       </c>
       <c r="F36" s="5">
-        <v>35</v>
+        <v>8220</v>
       </c>
       <c r="G36" s="4">
         <v>4</v>
       </c>
       <c r="H36" s="4">
-        <v>0.35</v>
+        <v>0.70000000000000029</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>350</v>
+        <v>9981</v>
       </c>
       <c r="K36" s="4">
         <v>5</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2010,39 +2083,38 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E37" s="4">
         <v>15001</v>
       </c>
       <c r="F37" s="5">
-        <v>36</v>
+        <v>10850</v>
       </c>
       <c r="G37" s="4">
         <v>4</v>
       </c>
       <c r="H37" s="4">
-        <v>0.36</v>
+        <v>0.73000000000000032</v>
       </c>
       <c r="I37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>360</v>
+        <v>13175</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2050,39 +2122,38 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E38" s="4">
         <v>15001</v>
       </c>
       <c r="F38" s="5">
-        <v>37</v>
+        <v>11930</v>
       </c>
       <c r="G38" s="4">
         <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>0.37</v>
+        <v>0.76000000000000034</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>370</v>
+        <v>14493</v>
       </c>
       <c r="K38" s="4">
         <v>5</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2090,39 +2161,38 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E39" s="4">
         <v>15001</v>
       </c>
       <c r="F39" s="5">
-        <v>38</v>
+        <v>13120</v>
       </c>
       <c r="G39" s="4">
         <v>4</v>
       </c>
       <c r="H39" s="4">
-        <v>0.38</v>
+        <v>0.79000000000000037</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>380</v>
+        <v>15943</v>
       </c>
       <c r="K39" s="4">
         <v>5</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2130,39 +2200,38 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E40" s="4">
         <v>15001</v>
       </c>
       <c r="F40" s="5">
-        <v>39</v>
+        <v>14430</v>
       </c>
       <c r="G40" s="4">
         <v>4</v>
       </c>
       <c r="H40" s="4">
-        <v>0.39</v>
+        <v>0.8200000000000004</v>
       </c>
       <c r="I40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>390</v>
+        <v>17538</v>
       </c>
       <c r="K40" s="4">
         <v>5</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2170,39 +2239,38 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E41" s="4">
         <v>15001</v>
       </c>
       <c r="F41" s="5">
-        <v>40</v>
+        <v>15870</v>
       </c>
       <c r="G41" s="4">
         <v>4</v>
       </c>
       <c r="H41" s="4">
-        <v>0.4</v>
+        <v>0.85000000000000042</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>400</v>
+        <v>19292</v>
       </c>
       <c r="K41" s="4">
         <v>5</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
